--- a/ExcelFile/HoaDon/Export/All.xlsx
+++ b/ExcelFile/HoaDon/Export/All.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="40">
   <si>
     <t/>
   </si>
@@ -83,10 +83,55 @@
     <t>giam 7% cho 1 hoa don</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>12/09/2022</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>09/08/2021</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>0909123457</t>
+  </si>
+  <si>
+    <t>04/07/2018</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>09/12/2021</t>
+  </si>
+  <si>
     <t>13</t>
   </si>
   <si>
     <t>09/04/2023</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>13/04/2023</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>0908123456</t>
+  </si>
+  <si>
+    <t>19/04/2023</t>
+  </si>
+  <si>
+    <t>16</t>
   </si>
 </sst>
 </file>
@@ -131,7 +176,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -325,7 +370,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s" s="0">
         <v>24</v>
@@ -334,7 +379,147 @@
         <v>15</v>
       </c>
       <c r="F10" t="n" s="0">
+        <v>100000.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="F11" t="n" s="0">
+        <v>100000.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="F12" t="n" s="0">
+        <v>190000.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="F13" t="n" s="0">
+        <v>190000.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="F14" t="n" s="0">
         <v>2450000.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="F15" t="n" s="0">
+        <v>2000000.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="F16" t="n" s="0">
+        <v>500000.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="F17" t="n" s="0">
+        <v>950000.0</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelFile/HoaDon/Export/All.xlsx
+++ b/ExcelFile/HoaDon/Export/All.xlsx
@@ -6,13 +6,14 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="danhsach" r:id="rId3" sheetId="1"/>
+    <sheet name="HoaDon" r:id="rId3" sheetId="1"/>
+    <sheet name="ChiTietHoaDon" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="42">
   <si>
     <t/>
   </si>
@@ -35,6 +36,18 @@
     <t>Tổng tiền</t>
   </si>
   <si>
+    <t>Mã sách</t>
+  </si>
+  <si>
+    <t>Tên sách</t>
+  </si>
+  <si>
+    <t>Giá sách</t>
+  </si>
+  <si>
+    <t>Số lượng</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -50,12 +63,24 @@
     <t>giam 7% cho 3 hoa don</t>
   </si>
   <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>Dac Nhan Tam</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>Harry Potter va hon da phu thuy</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
@@ -89,25 +114,7 @@
     <t>12/09/2022</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>09/08/2021</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>0909123457</t>
-  </si>
-  <si>
-    <t>04/07/2018</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>09/12/2021</t>
+    <t xml:space="preserve">Dac Nhan Tam </t>
   </si>
   <si>
     <t>13</t>
@@ -176,7 +183,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -204,19 +211,19 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F2" t="n" s="0">
         <v>279000.0</v>
@@ -224,19 +231,19 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F3" t="n" s="0">
         <v>93000.0</v>
@@ -244,19 +251,19 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="B4" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>9</v>
-      </c>
       <c r="D4" t="s" s="0">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F4" t="n" s="0">
         <v>883500.0</v>
@@ -264,19 +271,19 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B5" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>10</v>
-      </c>
       <c r="E5" t="s" s="0">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F5" t="n" s="0">
         <v>200000.0</v>
@@ -284,19 +291,19 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F6" t="n" s="0">
         <v>2420000.0</v>
@@ -304,19 +311,19 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F7" t="n" s="0">
         <v>900000.0</v>
@@ -324,19 +331,19 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F8" t="n" s="0">
         <v>1710000.0</v>
@@ -344,19 +351,19 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F9" t="n" s="0">
         <v>186000.0</v>
@@ -364,19 +371,19 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F10" t="n" s="0">
         <v>100000.0</v>
@@ -384,142 +391,367 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="B11" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s" s="0">
-        <v>17</v>
-      </c>
       <c r="D11" t="s" s="0">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F11" t="n" s="0">
-        <v>100000.0</v>
+        <v>2450000.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F12" t="n" s="0">
-        <v>190000.0</v>
+        <v>2000000.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F13" t="n" s="0">
-        <v>190000.0</v>
+        <v>500000.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F14" t="n" s="0">
+        <v>950000.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s" s="0">
         <v>8</v>
       </c>
+      <c r="D1" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>100000.0</v>
+      </c>
+      <c r="E2" t="n" s="0">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>100000.0</v>
+      </c>
+      <c r="E3" t="n" s="0">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>190000.0</v>
+      </c>
+      <c r="E4" t="n" s="0">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D5" t="n" s="0">
+        <v>100000.0</v>
+      </c>
+      <c r="E5" t="n" s="0">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D6" t="n" s="0">
+        <v>100000.0</v>
+      </c>
+      <c r="E6" t="n" s="0">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="D7" t="n" s="0">
+        <v>190000.0</v>
+      </c>
+      <c r="E7" t="n" s="0">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D8" t="n" s="0">
+        <v>100000.0</v>
+      </c>
+      <c r="E8" t="n" s="0">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="D9" t="n" s="0">
+        <v>190000.0</v>
+      </c>
+      <c r="E9" t="n" s="0">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D10" t="n" s="0">
+        <v>100000.0</v>
+      </c>
+      <c r="E10" t="n" s="0">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="D11" t="n" s="0">
+        <v>100000.0</v>
+      </c>
+      <c r="E11" t="n" s="0">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>100000.0</v>
+      </c>
+      <c r="E12" t="n" s="0">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="D13" t="n" s="0">
+        <v>190000.0</v>
+      </c>
+      <c r="E13" t="n" s="0">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>16</v>
+      </c>
       <c r="C14" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D14" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="E14" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="F14" t="n" s="0">
-        <v>2450000.0</v>
+      <c r="D14" t="n" s="0">
+        <v>100000.0</v>
+      </c>
+      <c r="E14" t="n" s="0">
+        <v>20.0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="0">
-        <v>34</v>
+      <c r="A15" t="n" s="0">
+        <v>15.0</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="D15" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="E15" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="F15" t="n" s="0">
-        <v>2000000.0</v>
+        <v>17</v>
+      </c>
+      <c r="D15" t="n" s="0">
+        <v>100000.0</v>
+      </c>
+      <c r="E15" t="n" s="0">
+        <v>5.0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="0">
-        <v>36</v>
+      <c r="A16" t="n" s="0">
+        <v>16.0</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="D16" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="E16" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="F16" t="n" s="0">
-        <v>500000.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="B17" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C17" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="D17" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="E17" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="F17" t="n" s="0">
-        <v>950000.0</v>
+        <v>21</v>
+      </c>
+      <c r="D16" t="n" s="0">
+        <v>190000.0</v>
+      </c>
+      <c r="E16" t="n" s="0">
+        <v>5.0</v>
       </c>
     </row>
   </sheetData>
